--- a/cognite/neat/rules/examples/skos-rules.xlsx
+++ b/cognite/neat/rules/examples/skos-rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/data/rules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FC70E-C42E-3D47-BD79-2C206D803CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629C31B-F964-6D46-AD13-C5DC3EE8E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="14640" windowWidth="34400" windowHeight="14160" activeTab="2" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Class</t>
   </si>
@@ -270,9 +270,6 @@
     <t>http://www.w3.org/2004/02/skos/core#</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>skos</t>
   </si>
   <si>
@@ -393,6 +390,24 @@
   </si>
   <si>
     <t>rights</t>
+  </si>
+  <si>
+    <t>Rule Type</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>rdfpath</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>wind_energy_taxonomy</t>
   </si>
 </sst>
 </file>
@@ -603,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -670,6 +685,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9981C4E-8ECE-C24F-A097-73341D4CF7FB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="317" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
+    <sheetView tabSelected="1" zoomScale="317" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1016,58 +1032,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1094,12 +1118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,49 +1134,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E568EE10-43FF-4C98-8017-611EF1608BA5}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="263" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="169" zoomScaleNormal="263" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1183,22 +1207,23 @@
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,15 +1243,21 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
@@ -1242,20 +1273,27 @@
         <f>"http://www.w3.org/2004/02/skos/core#" &amp; B3</f>
         <v>http://www.w3.org/2004/02/skos/core#prefLabel</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"skos:" &amp; A3 &amp; "(skos:" &amp; B3 &amp; ")"</f>
+        <v>skos:Concept(skos:prefLabel)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="13">
         <v>1</v>
@@ -1264,13 +1302,20 @@
         <f t="shared" ref="G4" si="0">"http://www.w3.org/2004/02/skos/core#" &amp; B4</f>
         <v>http://www.w3.org/2004/02/skos/core#definition</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I15" si="1">"skos:" &amp; A4 &amp; "(skos:" &amp; B4 &amp; ")"</f>
+        <v>skos:Concept(skos:definition)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
@@ -1281,20 +1326,27 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G14" si="1">"http://www.w3.org/2004/02/skos/core#" &amp; B5</f>
+        <f t="shared" ref="G5:G14" si="2">"http://www.w3.org/2004/02/skos/core#" &amp; B5</f>
         <v>http://www.w3.org/2004/02/skos/core#altLabel</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>skos:Concept(skos:altLabel)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1303,20 +1355,27 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#inScheme</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#inScheme</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:inScheme)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -1325,156 +1384,212 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#topConceptOf</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#topConceptOf</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:topConceptOf)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#broader</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#broader</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:broader)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#narrower</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#narrower</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:narrower)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#related</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#related</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:related)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#closeMatch</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#closeMatch</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:closeMatch)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#exactMatch</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#exactMatch</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:exactMatch)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#relatedMatch</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#relatedMatch</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:Concept(skos:relatedMatch)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.w3.org/2004/02/skos/core#hasTopConcept</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.w3.org/2004/02/skos/core#hasTopConcept</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>skos:ConceptScheme(skos:hasTopConcept)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
@@ -1490,10 +1605,17 @@
         <f>"http://www.w3.org/2004/02/skos/core#" &amp; B15</f>
         <v>http://www.w3.org/2004/02/skos/core#prefLabel</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>skos:ConceptScheme(skos:prefLabel)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>10</v>
@@ -1509,16 +1631,23 @@
         <v>1</v>
       </c>
       <c r="G16" s="31" t="str">
-        <f t="shared" ref="G16:G24" si="2">"http://purl.org/dc/terms/" &amp; B16</f>
+        <f t="shared" ref="G16:G24" si="3">"http://purl.org/dc/terms/" &amp; B16</f>
         <v>http://purl.org/dc/terms/description</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"skos:" &amp; A16 &amp; "(dct:" &amp; B16 &amp; ")"</f>
+        <v>skos:ConceptScheme(dct:description)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
@@ -1531,20 +1660,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/title</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="str">
+        <f>"skos:" &amp; A17 &amp; "(dct:" &amp; B17 &amp; ")"</f>
+        <v>skos:ConceptScheme(dct:title)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -1553,20 +1689,27 @@
         <v>1</v>
       </c>
       <c r="G18" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/created</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ref="I18:I24" si="4">"skos:" &amp; A18 &amp; "(dct:" &amp; B18 &amp; ")"</f>
+        <v>skos:ConceptScheme(dct:created)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -1575,16 +1718,23 @@
         <v>1</v>
       </c>
       <c r="G19" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/modified</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:modified)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
@@ -1597,13 +1747,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/hasVersion</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:hasVersion)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -1617,16 +1774,23 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/creator</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:creator)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
@@ -1637,16 +1801,23 @@
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/contributor</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:contributor)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29" t="s">
@@ -1659,16 +1830,23 @@
         <v>1</v>
       </c>
       <c r="G23" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/license</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:license)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
@@ -1681,8 +1859,15 @@
         <v>1</v>
       </c>
       <c r="G24" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://purl.org/dc/terms/rights</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>skos:ConceptScheme(dct:rights)</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1883,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
